--- a/ECC/Segunda Etapa/Secretaria/2018/Quadrante Modelo.xlsx
+++ b/ECC/Segunda Etapa/Secretaria/2018/Quadrante Modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ECC II Etapa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin\Desktop\ECC II Etapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FBA7EF-27C4-40F7-BF6E-5A280945D787}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42A4FC-A235-4431-BC21-17C59A162FAD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{89AA123E-8D99-493B-A28B-FEE1288400B3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Numero Quadrantes</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Casal Ligação Setorial</t>
-  </si>
-  <si>
-    <t>]</t>
   </si>
   <si>
     <t>Capa (Igual Missas e Livro de Canto)</t>
@@ -479,62 +476,62 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -586,8 +583,8 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +638,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
